--- a/账目结算清单/婚礼人数清单.xlsx
+++ b/账目结算清单/婚礼人数清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\结算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\BaseInformation\账目结算清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>林阿冰</t>
   </si>
@@ -165,9 +165,6 @@
     <t>李娟</t>
   </si>
   <si>
-    <t>长能</t>
-  </si>
-  <si>
     <t>玉明</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
   </si>
   <si>
     <t>梁文婷</t>
-  </si>
-  <si>
-    <t>林丽枫</t>
   </si>
   <si>
     <t>雷丽娟</t>
@@ -400,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林长能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王利娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,6 +418,38 @@
   </si>
   <si>
     <t>姚建航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄丽枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯作锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷镇斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷镇勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖尚希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑顺游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林国荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林长能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,28 +1000,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1268,7 +1290,9 @@
       <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -1926,7 +1950,9 @@
       <c r="H32" s="15">
         <v>0</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
@@ -1994,7 +2020,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2044,7 +2070,9 @@
       <c r="H36" s="14">
         <v>0</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
@@ -2102,7 +2130,9 @@
       <c r="H38" s="14">
         <v>0</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
@@ -2250,7 +2280,9 @@
       <c r="H43" s="14">
         <v>0</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
@@ -2413,7 +2445,9 @@
       <c r="C49" s="16">
         <v>1</v>
       </c>
-      <c r="I49" s="24"/>
+      <c r="I49" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
@@ -2441,15 +2475,17 @@
       <c r="H50" s="14">
         <v>0</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>48</v>
+      <c r="B51" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="C51" s="9">
         <v>1</v>
@@ -2479,7 +2515,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="9">
         <v>1</v>
@@ -2509,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="9">
         <v>1</v>
@@ -2539,7 +2575,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="9">
         <v>1</v>
@@ -2563,33 +2599,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+    <row r="55" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="21"/>
+      <c r="B55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="16">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
@@ -2597,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
@@ -2627,7 +2665,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -2657,7 +2695,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="8">
         <v>1</v>
@@ -2687,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -2717,7 +2755,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
@@ -2747,7 +2785,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="8">
         <v>1</v>
@@ -2777,7 +2815,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8">
         <v>1</v>
@@ -2807,7 +2845,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="6">
         <v>1</v>
@@ -2837,7 +2875,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -2857,7 +2895,9 @@
       <c r="H64" s="6">
         <v>0</v>
       </c>
-      <c r="I64" s="18"/>
+      <c r="I64" s="18">
+        <v>1000</v>
+      </c>
     </row>
     <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
@@ -2865,7 +2905,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -2895,7 +2935,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6">
         <v>1</v>
@@ -2925,7 +2965,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="9">
         <v>1</v>
@@ -2955,7 +2995,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="8">
         <v>1</v>
@@ -2985,7 +3025,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="6">
         <v>1</v>
@@ -3015,7 +3055,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
@@ -3045,7 +3085,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
@@ -3075,7 +3115,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
@@ -3105,7 +3145,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
@@ -3135,7 +3175,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
@@ -3165,7 +3205,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
@@ -3194,7 +3234,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -3224,7 +3264,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C77" s="10">
         <v>1</v>
@@ -3232,7 +3272,9 @@
       <c r="D77" s="10">
         <v>0</v>
       </c>
-      <c r="I77" s="25"/>
+      <c r="I77" s="25">
+        <v>300</v>
+      </c>
     </row>
     <row r="78" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
@@ -3240,7 +3282,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" s="9">
         <v>1</v>
@@ -3270,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" s="8">
         <v>1</v>
@@ -3300,7 +3342,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
@@ -3330,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
@@ -3360,7 +3402,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" s="8">
         <v>1</v>
@@ -3390,7 +3432,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
@@ -3420,7 +3462,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" s="6">
         <v>1</v>
@@ -3450,7 +3492,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
@@ -3480,7 +3522,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="8">
         <v>1</v>
@@ -3510,7 +3552,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
@@ -3540,7 +3582,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
@@ -3570,7 +3612,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
@@ -3600,7 +3642,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C90" s="6">
         <v>1</v>
@@ -3630,7 +3672,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="6">
         <v>1</v>
@@ -3660,9 +3702,11 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I92" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="I92" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
@@ -3670,7 +3714,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C93" s="8">
         <v>1</v>
@@ -3700,7 +3744,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94" s="6">
         <v>1</v>
@@ -3730,7 +3774,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
@@ -3760,7 +3804,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -3790,7 +3834,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -3820,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="9">
         <v>1</v>
@@ -3850,7 +3894,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99" s="10">
         <v>1</v>
@@ -3880,7 +3924,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100" s="6">
         <v>1</v>
@@ -3910,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="10">
         <v>1</v>
@@ -3925,7 +3969,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102" s="10">
         <v>1</v>
@@ -3940,7 +3984,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="6">
         <v>1</v>
@@ -3970,7 +4014,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="9">
         <v>1</v>
@@ -4000,7 +4044,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="9">
         <v>1</v>
@@ -4030,7 +4074,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" s="6">
         <v>1</v>
@@ -4060,7 +4104,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" s="10">
         <v>1</v>
@@ -4090,7 +4134,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" s="8">
         <v>1</v>
@@ -4120,7 +4164,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109" s="8">
         <v>1</v>
@@ -4150,7 +4194,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110" s="6">
         <v>1</v>
@@ -4180,7 +4224,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111" s="9">
         <v>1</v>
@@ -4210,7 +4254,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" s="9">
         <v>1</v>
@@ -4234,13 +4278,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C113" s="16">
         <v>1</v>
@@ -4260,15 +4304,17 @@
       <c r="H113" s="16">
         <v>0</v>
       </c>
-      <c r="I113" s="24"/>
-    </row>
-    <row r="114" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I113" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C114" s="6">
         <v>1</v>
@@ -4292,142 +4338,187 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
         <f t="shared" ref="A115:A122" si="2">ROW()-1</f>
         <v>114</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="9">
-        <v>1</v>
-      </c>
-      <c r="D115" s="9">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
-        <v>0</v>
-      </c>
-      <c r="G115" s="9">
-        <v>1</v>
-      </c>
-      <c r="H115" s="9">
-        <v>0</v>
-      </c>
-      <c r="I115" s="21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I117" s="26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
       </c>
       <c r="I118" s="26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I119" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I120" s="26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I121" s="26">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="3" t="s">
+      <c r="B122" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I122" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I123" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" ref="C127:H127" si="3">SUM(C2:C126)</f>
         <v>114</v>
       </c>
-      <c r="C124" s="3">
-        <f t="shared" ref="C124:H124" si="3">SUM(C2:C123)</f>
-        <v>114</v>
-      </c>
-      <c r="D124" s="3">
+      <c r="D127" s="3">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="E124" s="3">
+        <v>79</v>
+      </c>
+      <c r="E127" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F127" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G127" s="3">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H127" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I124" s="27">
-        <f>SUM(I2:I122)</f>
-        <v>80395</v>
+      <c r="I127" s="27">
+        <f>SUM(I2:I123)</f>
+        <v>84961</v>
+      </c>
+      <c r="J127" s="3">
+        <v>84961</v>
       </c>
     </row>
   </sheetData>
